--- a/testdata/FCfiles/qa/ManageBilling/ManageBilling.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/ManageBilling.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -338,6 +338,30 @@
   </si>
   <si>
     <t>51526984+8</t>
+  </si>
+  <si>
+    <t>51530027</t>
+  </si>
+  <si>
+    <t>51530027+2</t>
+  </si>
+  <si>
+    <t>51530027+3</t>
+  </si>
+  <si>
+    <t>51530027+4</t>
+  </si>
+  <si>
+    <t>51530027+5</t>
+  </si>
+  <si>
+    <t>51530027+6</t>
+  </si>
+  <si>
+    <t>51530027+7</t>
+  </si>
+  <si>
+    <t>51530027+8</t>
   </si>
 </sst>
 </file>
@@ -354,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="1081">
+  <fills count="1109">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5757,8 +5781,148 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1080">
+  <borders count="1108">
     <border>
       <left/>
       <right/>
@@ -9659,11 +9823,109 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="560">
+  <cellXfs count="574">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
@@ -10229,7 +10491,21 @@
     <xf applyBorder="true" applyFill="true" borderId="1073" fillId="1074" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1075" fillId="1076" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1077" fillId="1078" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="1080" borderId="1079" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="1079" fillId="1080" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1081" fillId="1082" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1083" fillId="1084" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1085" fillId="1086" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1087" fillId="1088" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1089" fillId="1090" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1091" fillId="1092" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1093" fillId="1094" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1095" fillId="1096" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1097" fillId="1098" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1099" fillId="1100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1101" fillId="1102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1103" fillId="1104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1105" fillId="1106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1108" borderId="1107" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -10646,11 +10922,11 @@
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="547" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="546" t="s">
-        <v>99</v>
+      <c r="C2" s="561" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="560" t="s">
+        <v>107</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -10693,11 +10969,11 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="549" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="548" t="s">
-        <v>99</v>
+      <c r="C3" s="563" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="562" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="12">
         <v>400</v>
@@ -10740,11 +11016,11 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="551" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="550" t="s">
-        <v>99</v>
+      <c r="C4" s="565" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="564" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="12">
         <v>400</v>
@@ -10787,11 +11063,11 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="553" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="552" t="s">
-        <v>99</v>
+      <c r="C5" s="567" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="566" t="s">
+        <v>107</v>
       </c>
       <c r="E5" s="12">
         <v>400</v>
@@ -10834,11 +11110,11 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="555" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="554" t="s">
-        <v>99</v>
+      <c r="C6" s="569" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="568" t="s">
+        <v>107</v>
       </c>
       <c r="E6" s="12">
         <v>156.47999999999999</v>
@@ -10881,11 +11157,11 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="557" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="556" t="s">
-        <v>99</v>
+      <c r="C7" s="571" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="570" t="s">
+        <v>107</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -10928,11 +11204,11 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="559" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="558" t="s">
-        <v>99</v>
+      <c r="C8" s="573" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="572" t="s">
+        <v>107</v>
       </c>
       <c r="E8" s="7">
         <v>2000</v>

--- a/testdata/FCfiles/qa/ManageBilling/ManageBilling.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/ManageBilling.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -362,6 +362,30 @@
   </si>
   <si>
     <t>51530027+8</t>
+  </si>
+  <si>
+    <t>51539216</t>
+  </si>
+  <si>
+    <t>51539216+2</t>
+  </si>
+  <si>
+    <t>51539216+3</t>
+  </si>
+  <si>
+    <t>51539216+4</t>
+  </si>
+  <si>
+    <t>51539216+5</t>
+  </si>
+  <si>
+    <t>51539216+6</t>
+  </si>
+  <si>
+    <t>51539216+7</t>
+  </si>
+  <si>
+    <t>51539216+8</t>
   </si>
 </sst>
 </file>
@@ -378,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="1109">
+  <fills count="1137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5921,8 +5945,148 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1108">
+  <borders count="1136">
     <border>
       <left/>
       <right/>
@@ -9921,11 +10085,109 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="574">
+  <cellXfs count="588">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
@@ -10505,7 +10767,21 @@
     <xf applyBorder="true" applyFill="true" borderId="1101" fillId="1102" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1103" fillId="1104" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1105" fillId="1106" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="1108" borderId="1107" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="1107" fillId="1108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1109" fillId="1110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1111" fillId="1112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1113" fillId="1114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1115" fillId="1116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1117" fillId="1118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1119" fillId="1120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1121" fillId="1122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1123" fillId="1124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1125" fillId="1126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1127" fillId="1128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1129" fillId="1130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1131" fillId="1132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1133" fillId="1134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1136" borderId="1135" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -10922,11 +11198,11 @@
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="561" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="560" t="s">
-        <v>107</v>
+      <c r="C2" s="575" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="574" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -10969,11 +11245,11 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="563" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="562" t="s">
-        <v>107</v>
+      <c r="C3" s="577" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="576" t="s">
+        <v>115</v>
       </c>
       <c r="E3" s="12">
         <v>400</v>
@@ -11016,11 +11292,11 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="565" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="564" t="s">
-        <v>107</v>
+      <c r="C4" s="579" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="578" t="s">
+        <v>115</v>
       </c>
       <c r="E4" s="12">
         <v>400</v>
@@ -11063,11 +11339,11 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="567" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="566" t="s">
-        <v>107</v>
+      <c r="C5" s="581" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="580" t="s">
+        <v>115</v>
       </c>
       <c r="E5" s="12">
         <v>400</v>
@@ -11110,11 +11386,11 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="569" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="568" t="s">
-        <v>107</v>
+      <c r="C6" s="583" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="582" t="s">
+        <v>115</v>
       </c>
       <c r="E6" s="12">
         <v>156.47999999999999</v>
@@ -11157,11 +11433,11 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="571" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="570" t="s">
-        <v>107</v>
+      <c r="C7" s="585" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="584" t="s">
+        <v>115</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -11204,11 +11480,11 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="573" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="572" t="s">
-        <v>107</v>
+      <c r="C8" s="587" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="586" t="s">
+        <v>115</v>
       </c>
       <c r="E8" s="7">
         <v>2000</v>
